--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2BD748-35CA-4B0D-BEDD-59B605B43C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFC9937-0A24-4D97-9B23-112732EC924B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{A19B7F58-688E-4F44-8A2B-AD7372C587EE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A19B7F58-688E-4F44-8A2B-AD7372C587EE}"/>
   </bookViews>
   <sheets>
     <sheet name="backEnd" sheetId="1" r:id="rId1"/>
     <sheet name="frontEnd" sheetId="2" r:id="rId2"/>
+    <sheet name="posts" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="174">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -205,12 +206,6 @@
   </si>
   <si>
     <t>/containers/write/WriteActionButtonsContainer.js</t>
-  </si>
-  <si>
-    <t>/lib/api/client.js</t>
-  </si>
-  <si>
-    <t>/lib/api/posts.js</t>
   </si>
   <si>
     <t>/modules/loading.js</t>
@@ -512,13 +507,6 @@
   <si>
     <t>/lib/styles/palette.js
 /components/common/Responsive.js
-/components/common/SubInfo.js
-/components/common/Tags.js</t>
-  </si>
-  <si>
-    <t>/components/common/Responsive.js
-/components/common/Button.js
-/lib/styles/palette.js
 /components/common/SubInfo.js
 /components/common/Tags.js</t>
   </si>
@@ -674,12 +662,464 @@
     <t>/pages/WritePage.js</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>containerComponent 호출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>createRequestActionTypes
+createRequestSaga
+createAction
+handleActions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>useSelector --&gt; 하위 컴포넌트 props로 전달
+dispatch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/components/common/Responsive.js
+/components/common/Button.js
+/lib/styles/palette.js
+/components/common/SubInfo.js
+/components/common/Tags.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lib/api/posts.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/modules/loading.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pages</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/PostListPage.js</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>containers</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/posts/PostListContainer.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useSelector --&gt; 하위 컴포넌트 props로 전달
+dispatch</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>components</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/posts/PostList.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>modules</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/posts.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+createAction
+handleActions
+postsSaga</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lib</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/createRequestSaga.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+createRequestActionTypes
+createRequestSaga</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lib</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/api/posts.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+client.post()</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>modules</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/loading.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+createAction
+handleActions</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lib</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/api/client.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+axios.create();</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,8 +1168,43 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,6 +1214,23 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,12 +1331,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -861,9 +1356,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -875,6 +1367,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -887,26 +1388,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1225,10 +1769,10 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.0625" customWidth="1"/>
-    <col min="2" max="2" width="10.5625" customWidth="1"/>
+    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="18.125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
@@ -1236,18 +1780,18 @@
     <col min="7" max="7" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.75" x14ac:dyDescent="0.6">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1270,17 +1814,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1289,13 +1833,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1304,15 +1848,15 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1321,13 +1865,13 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1336,15 +1880,15 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1353,13 +1897,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1368,15 +1912,15 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1385,13 +1929,13 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1400,13 +1944,13 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1415,13 +1959,13 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1430,13 +1974,13 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1466,35 +2010,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FF4E5B-5F7D-4BA2-A0FE-C5C5AB4F67C6}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.1875" customWidth="1"/>
-    <col min="2" max="2" width="11.9375" customWidth="1"/>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="27.1875" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
     <col min="5" max="5" width="41.25" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
-    <col min="7" max="7" width="48.8125" customWidth="1"/>
+    <col min="7" max="7" width="48.875" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.6">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1511,7 +2055,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>5</v>
@@ -1520,294 +2064,302 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A3" s="2">
+    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>56</v>
+      <c r="B3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>120</v>
+        <v>52</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A4" s="2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>76</v>
+      <c r="B6" s="20"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A7" s="2">
+    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>121</v>
+      <c r="B7" s="20"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>119</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A8" s="2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A9" s="2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
         <v>7</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>117</v>
+      <c r="F9" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A10" s="2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
         <v>8</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>76</v>
+      <c r="F10" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A11" s="2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
         <v>9</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="11" t="s">
-        <v>60</v>
+      <c r="B11" s="20"/>
+      <c r="C11" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A12" s="2">
+    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
         <v>10</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>123</v>
+      <c r="F12" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="67.5" x14ac:dyDescent="0.6">
-      <c r="A13" s="2">
+    <row r="13" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
         <v>11</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>124</v>
+      <c r="F13" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A14" s="2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
         <v>12</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>14</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="84.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>126</v>
+      <c r="F16" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A17" s="2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
         <v>15</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A18" s="2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
         <v>16</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>43</v>
@@ -1818,534 +2370,550 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A19" s="2">
+    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>56</v>
+      <c r="B19" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>119</v>
+        <v>63</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A20" s="2">
+    <row r="20" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
         <v>18</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>127</v>
+        <v>151</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A21" s="2">
+    <row r="21" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
         <v>19</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>128</v>
+      <c r="B21" s="20"/>
+      <c r="C21" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>125</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="84.4" x14ac:dyDescent="0.6">
-      <c r="A22" s="2">
+    <row r="22" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
         <v>20</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>129</v>
+        <v>66</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A23" s="2">
+    <row r="23" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
         <v>21</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" s="18">
+        <v>22</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
+        <v>23</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A24" s="2">
-        <v>22</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A25" s="2">
-        <v>23</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>132</v>
+        <v>68</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A26" s="2">
+    <row r="26" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
         <v>24</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>133</v>
+      <c r="F26" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A27" s="2">
+    <row r="27" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" s="18">
         <v>25</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>131</v>
+      <c r="F27" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A28" s="2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="18">
         <v>26</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>134</v>
+        <v>69</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A29" s="2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="18">
         <v>27</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="1" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="18">
+        <v>28</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="18">
+        <v>29</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A30" s="2">
-        <v>28</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A31" s="2">
-        <v>29</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="1"/>
+      <c r="E31" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="26"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A32" s="5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="18">
         <v>30</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>48</v>
+      <c r="B32" s="21"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>160</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A33" s="5">
+    <row r="33" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A33" s="18">
         <v>31</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="11"/>
+      <c r="B33" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="13"/>
       <c r="D33" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>136</v>
+        <v>70</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
-      <c r="A34" s="5">
+    <row r="34" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+      <c r="A34" s="18">
         <v>32</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="1" t="s">
+      <c r="B34" s="22"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" s="1"/>
+      <c r="E34" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" s="6"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A35" s="5">
+    <row r="35" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A35" s="18">
         <v>33</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="12"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>139</v>
+        <v>46</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A36" s="5">
+    <row r="36" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A36" s="18">
         <v>34</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="12"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A37" s="5">
+    <row r="37" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A37" s="18">
         <v>35</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>49</v>
+      <c r="B37" s="22"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A38" s="5">
+        <v>136</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="18">
         <v>36</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="12"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>141</v>
+        <v>116</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A39" s="5">
+    <row r="39" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A39" s="18">
         <v>37</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="13"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>139</v>
+        <v>48</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A40" s="5">
+    <row r="40" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A40" s="18">
         <v>38</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="11"/>
+      <c r="B40" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="13"/>
       <c r="D40" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>142</v>
+        <v>72</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A41" s="5">
+    <row r="41" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="18">
         <v>39</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>149</v>
+      <c r="B41" s="22"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A42" s="5">
+        <v>140</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A42" s="18">
         <v>40</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="12"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>144</v>
+        <v>49</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A43" s="5">
+    <row r="43" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A43" s="18">
         <v>41</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="12"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>145</v>
+        <v>50</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="84.4" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A44" s="5">
+    <row r="44" spans="1:8" ht="84.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18">
         <v>42</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="13"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>146</v>
+        <v>152</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="84.4" x14ac:dyDescent="0.6">
-      <c r="A45" s="5">
+    <row r="45" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="18">
         <v>43</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="19"/>
+      <c r="B45" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="11"/>
       <c r="D45" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>147</v>
+        <v>51</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A46" s="5">
+    <row r="46" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="18">
         <v>44</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="19"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="17" t="s">
-        <v>148</v>
+      <c r="F46" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="C40:C44"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="C32:D32"/>
@@ -2359,9 +2927,94 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B27"/>
     <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="C40:C44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A491228-CA50-4996-88F3-6E26656F56AD}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="39.375" customWidth="1"/>
+    <col min="3" max="3" width="31.25" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFC9937-0A24-4D97-9B23-112732EC924B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C860951-EE40-49C9-B132-19B01FFE4F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A19B7F58-688E-4F44-8A2B-AD7372C587EE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{A19B7F58-688E-4F44-8A2B-AD7372C587EE}"/>
   </bookViews>
   <sheets>
     <sheet name="backEnd" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="179">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1112,6 +1112,26 @@
       <t xml:space="preserve">
 axios.create();</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>useRef, useEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>React.memo, useCallback</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>useEffect, useState, useSelector, useDispatch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>useSelector, useDispatch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>useEffect, useSelector, useDispatch</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1376,6 +1396,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1388,15 +1435,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1406,7 +1444,19 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1415,37 +1465,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1769,7 +1789,7 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="10.625" customWidth="1"/>
@@ -1780,18 +1800,18 @@
     <col min="7" max="7" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" ht="24.75" x14ac:dyDescent="0.6">
+      <c r="A1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1814,14 +1834,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1833,12 +1853,12 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
@@ -1848,12 +1868,12 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1865,12 +1885,12 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
@@ -1880,14 +1900,14 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
@@ -1897,12 +1917,12 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
@@ -1912,14 +1932,14 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="5" t="s">
         <v>32</v>
       </c>
@@ -1929,12 +1949,12 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
@@ -1944,12 +1964,12 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1959,12 +1979,12 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1974,12 +1994,12 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="5" t="s">
         <v>31</v>
       </c>
@@ -2010,35 +2030,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FF4E5B-5F7D-4BA2-A0FE-C5C5AB4F67C6}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="6.25" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="27.25" customWidth="1"/>
     <col min="5" max="5" width="41.25" customWidth="1"/>
-    <col min="6" max="6" width="44" customWidth="1"/>
-    <col min="7" max="7" width="48.875" customWidth="1"/>
+    <col min="6" max="6" width="44" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="70.6875" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.6">
+      <c r="A1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2064,14 +2084,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="18">
+    <row r="3" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="22" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2086,12 +2106,12 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="18">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="1" t="s">
         <v>78</v>
       </c>
@@ -2104,120 +2124,120 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="26" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="15" t="s">
         <v>74</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
+    <row r="7" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="16" t="s">
         <v>119</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="26" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="26" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="15" t="s">
         <v>115</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="26" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="15" t="s">
         <v>74</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="22" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2232,12 +2252,12 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+    <row r="12" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="1" t="s">
         <v>86</v>
       </c>
@@ -2250,12 +2270,12 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+    <row r="13" spans="1:8" ht="67.5" x14ac:dyDescent="0.6">
+      <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="1" t="s">
         <v>87</v>
       </c>
@@ -2268,58 +2288,54 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="12" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="84.4" x14ac:dyDescent="0.6">
+      <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="16" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="13" t="s">
         <v>158</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H15" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2331,15 +2347,17 @@
       <c r="F16" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A17" s="14">
         <v>15</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="1" t="s">
         <v>91</v>
       </c>
@@ -2349,15 +2367,17 @@
       <c r="F17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A18" s="14">
         <v>16</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="1" t="s">
         <v>92</v>
       </c>
@@ -2370,14 +2390,14 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
+    <row r="19" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A19" s="14">
         <v>17</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="22" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2389,15 +2409,17 @@
       <c r="F19" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
+    <row r="20" spans="1:8" ht="50.65" x14ac:dyDescent="0.6">
+      <c r="A20" s="14">
         <v>18</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="1" t="s">
         <v>94</v>
       </c>
@@ -2407,34 +2429,38 @@
       <c r="F20" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
+    <row r="21" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A21" s="14">
         <v>19</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
+    <row r="22" spans="1:8" ht="84.4" x14ac:dyDescent="0.6">
+      <c r="A22" s="14">
         <v>20</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="2" t="s">
         <v>58</v>
       </c>
@@ -2447,61 +2473,59 @@
       <c r="F22" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
+    <row r="23" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A23" s="14">
         <v>21</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="12" t="s">
         <v>59</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A24" s="14">
         <v>22</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="16" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="13" t="s">
         <v>127</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A25" s="14">
         <v>23</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2516,12 +2540,12 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
+    <row r="26" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A26" s="14">
         <v>24</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="1" t="s">
         <v>100</v>
       </c>
@@ -2534,12 +2558,12 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="18">
+    <row r="27" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A27" s="14">
         <v>25</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="1" t="s">
         <v>101</v>
       </c>
@@ -2552,14 +2576,14 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="18">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A28" s="14">
         <v>26</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2574,86 +2598,82 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="18">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A29" s="14">
         <v>27</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="26" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="26"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="18">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A30" s="14">
         <v>28</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="12" t="s">
         <v>131</v>
       </c>
       <c r="G30" s="10"/>
-      <c r="H30" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A31" s="14">
         <v>29</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="30" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="26"/>
+      <c r="F31" s="15"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="18">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A32" s="14">
         <v>30</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="26" t="s">
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="15" t="s">
         <v>160</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="18">
+    <row r="33" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A33" s="14">
         <v>31</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="13"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="1" t="s">
         <v>102</v>
       </c>
@@ -2666,30 +2686,30 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="99" x14ac:dyDescent="0.3">
-      <c r="A34" s="18">
+    <row r="34" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
+      <c r="A34" s="14">
         <v>32</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="26" t="s">
+      <c r="B34" s="35"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="16" t="s">
         <v>135</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="18">
+    <row r="35" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A35" s="14">
         <v>33</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="1" t="s">
         <v>106</v>
       </c>
@@ -2702,12 +2722,12 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="18">
+    <row r="36" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A36" s="14">
         <v>34</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,34 +2740,32 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A37" s="18">
+    <row r="37" spans="1:8" ht="67.5" x14ac:dyDescent="0.6">
+      <c r="A37" s="14">
         <v>35</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="16" t="s">
+      <c r="B37" s="35"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="13" t="s">
         <v>136</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="H37" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="18">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A38" s="14">
         <v>36</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="14"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="1" t="s">
         <v>30</v>
       </c>
@@ -2760,12 +2778,12 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A39" s="18">
+    <row r="39" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A39" s="14">
         <v>37</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="15"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="1" t="s">
         <v>107</v>
       </c>
@@ -2778,14 +2796,14 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
+    <row r="40" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A40" s="14">
         <v>38</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="13"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="1" t="s">
         <v>108</v>
       </c>
@@ -2798,34 +2816,32 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="18">
+    <row r="41" spans="1:8" ht="50.65" x14ac:dyDescent="0.6">
+      <c r="A41" s="14">
         <v>39</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="16" t="s">
+      <c r="B41" s="35"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="13" t="s">
         <v>140</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A42" s="18">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A42" s="14">
         <v>40</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="14"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="23"/>
       <c r="D42" s="1" t="s">
         <v>110</v>
       </c>
@@ -2838,12 +2854,12 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A43" s="18">
+    <row r="43" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A43" s="14">
         <v>41</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="14"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="1" t="s">
         <v>111</v>
       </c>
@@ -2856,12 +2872,12 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="84.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18">
+    <row r="44" spans="1:8" ht="84.4" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="14">
         <v>42</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="15"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="24"/>
       <c r="D44" s="1" t="s">
         <v>112</v>
       </c>
@@ -2874,11 +2890,11 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="18">
+    <row r="45" spans="1:8" ht="84.4" x14ac:dyDescent="0.6">
+      <c r="A45" s="14">
         <v>43</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="35" t="s">
         <v>153</v>
       </c>
       <c r="C45" s="11"/>
@@ -2894,11 +2910,11 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="18">
+    <row r="46" spans="1:8" ht="50.65" x14ac:dyDescent="0.6">
+      <c r="A46" s="14">
         <v>44</v>
       </c>
-      <c r="B46" s="22"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="11"/>
       <c r="D46" s="1" t="s">
         <v>21</v>
@@ -2914,6 +2930,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="C40:C44"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="C32:D32"/>
@@ -2927,12 +2949,6 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B27"/>
     <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="C40:C44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2944,11 +2960,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A491228-CA50-4996-88F3-6E26656F56AD}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="22.125" customWidth="1"/>
     <col min="2" max="2" width="39.375" customWidth="1"/>
@@ -2957,25 +2973,25 @@
     <col min="5" max="5" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="20" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="18" t="s">
         <v>166</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2984,12 +3000,12 @@
       <c r="C2" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="19" t="s">
         <v>158</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="1"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
@@ -3002,7 +3018,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6"/>
